--- a/dthumodel.xlsx
+++ b/dthumodel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27780" windowHeight="13060"/>
+    <workbookView windowWidth="27800" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="835" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11359" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12303" uniqueCount="44">
   <si>
     <t>Ngày xuất</t>
   </si>
@@ -1100,15 +1100,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D1:J2839"/>
+  <dimension ref="D1:J3075"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2810" workbookViewId="0">
-      <selection activeCell="E2826" sqref="E2826"/>
+      <selection activeCell="D2810" sqref="D$1:J$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="16.8"/>
   <cols>
-    <col min="4" max="4" width="10.6875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
     <col min="5" max="10" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -66409,6 +66409,5434 @@
         <v>2072410.4</v>
       </c>
     </row>
+    <row r="2840" spans="4:10">
+      <c r="D2840" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2840" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2840" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2840" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2840" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2840" s="2">
+        <v>3629700</v>
+      </c>
+      <c r="J2840" s="2">
+        <v>3629700</v>
+      </c>
+    </row>
+    <row r="2841" spans="4:10">
+      <c r="D2841" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2841" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2841" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2841" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2841" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2841" s="2">
+        <v>11628085</v>
+      </c>
+      <c r="J2841" s="2">
+        <v>13953702</v>
+      </c>
+    </row>
+    <row r="2842" spans="4:10">
+      <c r="D2842" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2842" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2842" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2842" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2842" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2842" s="2">
+        <v>37963</v>
+      </c>
+      <c r="J2842" s="2">
+        <v>37963</v>
+      </c>
+    </row>
+    <row r="2843" spans="4:10">
+      <c r="D2843" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2843" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2843" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2843" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2843" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2843" s="2">
+        <v>2145639</v>
+      </c>
+      <c r="J2843" s="2">
+        <v>2145639</v>
+      </c>
+    </row>
+    <row r="2844" spans="4:10">
+      <c r="D2844" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2844" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2844" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2844" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2844" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2844" s="2">
+        <v>6502163</v>
+      </c>
+      <c r="J2844" s="2">
+        <v>6502163</v>
+      </c>
+    </row>
+    <row r="2845" spans="4:10">
+      <c r="D2845" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2845" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2845" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2845" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2845" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2845" s="2">
+        <v>795529</v>
+      </c>
+      <c r="J2845" s="2">
+        <v>795529</v>
+      </c>
+    </row>
+    <row r="2846" spans="4:10">
+      <c r="D2846" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2846" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2846" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2846" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2846" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2846" s="2">
+        <v>2132005</v>
+      </c>
+      <c r="J2846" s="2">
+        <v>2382193.4</v>
+      </c>
+    </row>
+    <row r="2847" spans="4:10">
+      <c r="D2847" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2847" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2847" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2847" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2847" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2847" s="2">
+        <v>3979140</v>
+      </c>
+      <c r="J2847" s="2">
+        <v>3979140</v>
+      </c>
+    </row>
+    <row r="2848" spans="4:10">
+      <c r="D2848" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2848" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2848" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2848" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2848" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2848" s="2">
+        <v>2117570</v>
+      </c>
+      <c r="J2848" s="2">
+        <v>2541084</v>
+      </c>
+    </row>
+    <row r="2849" spans="4:10">
+      <c r="D2849" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2849" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2849" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2849" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2849" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2849" s="2">
+        <v>938422</v>
+      </c>
+      <c r="J2849" s="2">
+        <v>938422</v>
+      </c>
+    </row>
+    <row r="2850" spans="4:10">
+      <c r="D2850" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2850" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2850" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2850" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2850" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2850" s="2">
+        <v>2471761</v>
+      </c>
+      <c r="J2850" s="2">
+        <v>2471761</v>
+      </c>
+    </row>
+    <row r="2851" spans="4:10">
+      <c r="D2851" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2851" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2851" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2851" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2851" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2851" s="2">
+        <v>6004815</v>
+      </c>
+      <c r="J2851" s="2">
+        <v>6004815</v>
+      </c>
+    </row>
+    <row r="2852" spans="4:10">
+      <c r="D2852" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2852" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2852" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2852" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2852" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2852" s="2">
+        <v>365159</v>
+      </c>
+      <c r="J2852" s="2">
+        <v>365159</v>
+      </c>
+    </row>
+    <row r="2853" spans="4:10">
+      <c r="D2853" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2853" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2853" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2853" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2853" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2853" s="2">
+        <v>7605651</v>
+      </c>
+      <c r="J2853" s="2">
+        <v>7605651</v>
+      </c>
+    </row>
+    <row r="2854" spans="4:10">
+      <c r="D2854" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2854" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2854" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2854" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2854" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2854" s="2">
+        <v>3170650</v>
+      </c>
+      <c r="J2854" s="2">
+        <v>3804780</v>
+      </c>
+    </row>
+    <row r="2855" spans="4:10">
+      <c r="D2855" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2855" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2855" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2855" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2855" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2855" s="2">
+        <v>6108581</v>
+      </c>
+      <c r="J2855" s="2">
+        <v>6108581</v>
+      </c>
+    </row>
+    <row r="2856" spans="4:10">
+      <c r="D2856" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2856" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2856" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2856" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2856" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2856" s="2">
+        <v>5616204</v>
+      </c>
+      <c r="J2856" s="2">
+        <v>5616204</v>
+      </c>
+    </row>
+    <row r="2857" spans="4:10">
+      <c r="D2857" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2857" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2857" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2857" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2857" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2857" s="2">
+        <v>1373333</v>
+      </c>
+      <c r="J2857" s="2">
+        <v>1373333</v>
+      </c>
+    </row>
+    <row r="2858" spans="4:10">
+      <c r="D2858" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2858" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2858" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2858" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2858" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2858" s="2">
+        <v>2118797</v>
+      </c>
+      <c r="J2858" s="2">
+        <v>2118797</v>
+      </c>
+    </row>
+    <row r="2859" spans="4:10">
+      <c r="D2859" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2859" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2859" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2859" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2859" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2859" s="2">
+        <v>4912916</v>
+      </c>
+      <c r="J2859" s="2">
+        <v>4912916</v>
+      </c>
+    </row>
+    <row r="2860" spans="4:10">
+      <c r="D2860" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2860" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2860" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2860" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2860" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2860" s="2">
+        <v>6256885</v>
+      </c>
+      <c r="J2860" s="2">
+        <v>6256885</v>
+      </c>
+    </row>
+    <row r="2861" spans="4:10">
+      <c r="D2861" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2861" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2861" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2861" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2861" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2861" s="2">
+        <v>1953102</v>
+      </c>
+      <c r="J2861" s="2">
+        <v>2343722.4</v>
+      </c>
+    </row>
+    <row r="2862" spans="4:10">
+      <c r="D2862" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2862" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2862" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2862" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2862" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2862" s="2">
+        <v>6028447</v>
+      </c>
+      <c r="J2862" s="2">
+        <v>6028447</v>
+      </c>
+    </row>
+    <row r="2863" spans="4:10">
+      <c r="D2863" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2863" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2863" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2863" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2863" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2863" s="2">
+        <v>13841863</v>
+      </c>
+      <c r="J2863" s="2">
+        <v>16610235.6</v>
+      </c>
+    </row>
+    <row r="2864" spans="4:10">
+      <c r="D2864" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2864" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2864" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2864" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2864" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2864" s="2">
+        <v>4563676</v>
+      </c>
+      <c r="J2864" s="2">
+        <v>4563676</v>
+      </c>
+    </row>
+    <row r="2865" spans="4:10">
+      <c r="D2865" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2865" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2865" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2865" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2865" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2865" s="2">
+        <v>86111</v>
+      </c>
+      <c r="J2865" s="2">
+        <v>86111</v>
+      </c>
+    </row>
+    <row r="2866" spans="4:10">
+      <c r="D2866" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2866" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2866" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2866" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2866" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2866" s="2">
+        <v>3739371</v>
+      </c>
+      <c r="J2866" s="2">
+        <v>4487245.2</v>
+      </c>
+    </row>
+    <row r="2867" spans="4:10">
+      <c r="D2867" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2867" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2867" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2867" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2867" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2867" s="2">
+        <v>7025463</v>
+      </c>
+      <c r="J2867" s="2">
+        <v>7025463</v>
+      </c>
+    </row>
+    <row r="2868" spans="4:10">
+      <c r="D2868" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2868" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2868" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2868" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2868" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2868" s="2">
+        <v>1165358</v>
+      </c>
+      <c r="J2868" s="2">
+        <v>1398429.6</v>
+      </c>
+    </row>
+    <row r="2869" spans="4:10">
+      <c r="D2869" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2869" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2869" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2869" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2869" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2869" s="2">
+        <v>4224172</v>
+      </c>
+      <c r="J2869" s="2">
+        <v>4224172</v>
+      </c>
+    </row>
+    <row r="2870" spans="4:10">
+      <c r="D2870" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2870" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2870" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2870" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2870" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2870" s="2">
+        <v>2502699</v>
+      </c>
+      <c r="J2870" s="2">
+        <v>2502699</v>
+      </c>
+    </row>
+    <row r="2871" spans="4:10">
+      <c r="D2871" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2871" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2871" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2871" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2871" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2871" s="2">
+        <v>1870335</v>
+      </c>
+      <c r="J2871" s="2">
+        <v>2092082</v>
+      </c>
+    </row>
+    <row r="2872" spans="4:10">
+      <c r="D2872" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2872" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2872" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2872" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2872" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2872" s="2">
+        <v>3882645</v>
+      </c>
+      <c r="J2872" s="2">
+        <v>3882645</v>
+      </c>
+    </row>
+    <row r="2873" spans="4:10">
+      <c r="D2873" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2873" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2873" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2873" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2873" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2873" s="2">
+        <v>2259813</v>
+      </c>
+      <c r="J2873" s="2">
+        <v>2711775.6</v>
+      </c>
+    </row>
+    <row r="2874" spans="4:10">
+      <c r="D2874" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2874" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2874" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2874" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2874" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2874" s="2">
+        <v>560714</v>
+      </c>
+      <c r="J2874" s="2">
+        <v>560714</v>
+      </c>
+    </row>
+    <row r="2875" spans="4:10">
+      <c r="D2875" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2875" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2875" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2875" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2875" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2875" s="2">
+        <v>4727738</v>
+      </c>
+      <c r="J2875" s="2">
+        <v>4727738</v>
+      </c>
+    </row>
+    <row r="2876" spans="4:10">
+      <c r="D2876" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2876" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2876" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2876" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2876" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2876" s="2">
+        <v>3158268</v>
+      </c>
+      <c r="J2876" s="2">
+        <v>3789921.6</v>
+      </c>
+    </row>
+    <row r="2877" spans="4:10">
+      <c r="D2877" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2877" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2877" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2877" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2877" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2877" s="2">
+        <v>18731545</v>
+      </c>
+      <c r="J2877" s="2">
+        <v>22477854</v>
+      </c>
+    </row>
+    <row r="2878" spans="4:10">
+      <c r="D2878" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2878" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2878" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2878" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2878" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2878" s="2">
+        <v>27778</v>
+      </c>
+      <c r="J2878" s="2">
+        <v>27778</v>
+      </c>
+    </row>
+    <row r="2879" spans="4:10">
+      <c r="D2879" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2879" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2879" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2879" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2879" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2879" s="2">
+        <v>2437261</v>
+      </c>
+      <c r="J2879" s="2">
+        <v>2437261</v>
+      </c>
+    </row>
+    <row r="2880" spans="4:10">
+      <c r="D2880" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2880" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2880" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2880" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2880" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2880" s="2">
+        <v>7297109</v>
+      </c>
+      <c r="J2880" s="2">
+        <v>7297109</v>
+      </c>
+    </row>
+    <row r="2881" spans="4:10">
+      <c r="D2881" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2881" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2881" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2881" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2881" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2881" s="2">
+        <v>13133263</v>
+      </c>
+      <c r="J2881" s="2">
+        <v>15759915.6</v>
+      </c>
+    </row>
+    <row r="2882" spans="4:10">
+      <c r="D2882" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2882" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2882" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2882" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2882" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2882" s="2">
+        <v>3670987</v>
+      </c>
+      <c r="J2882" s="2">
+        <v>4183138.4</v>
+      </c>
+    </row>
+    <row r="2883" spans="4:10">
+      <c r="D2883" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2883" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2883" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2883" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2883" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2883" s="2">
+        <v>1730090</v>
+      </c>
+      <c r="J2883" s="2">
+        <v>1730090</v>
+      </c>
+    </row>
+    <row r="2884" spans="4:10">
+      <c r="D2884" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2884" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2884" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2884" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2884" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2884" s="2">
+        <v>3809539</v>
+      </c>
+      <c r="J2884" s="2">
+        <v>3809539</v>
+      </c>
+    </row>
+    <row r="2885" spans="4:10">
+      <c r="D2885" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2885" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2885" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2885" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2885" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2885" s="2">
+        <v>14382207</v>
+      </c>
+      <c r="J2885" s="2">
+        <v>17258648.4</v>
+      </c>
+    </row>
+    <row r="2886" spans="4:10">
+      <c r="D2886" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2886" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2886" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2886" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2886" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2886" s="2">
+        <v>616665</v>
+      </c>
+      <c r="J2886" s="2">
+        <v>616665</v>
+      </c>
+    </row>
+    <row r="2887" spans="4:10">
+      <c r="D2887" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2887" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2887" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2887" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2887" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2887" s="2">
+        <v>2290741</v>
+      </c>
+      <c r="J2887" s="2">
+        <v>2290741</v>
+      </c>
+    </row>
+    <row r="2888" spans="4:10">
+      <c r="D2888" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2888" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2888" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2888" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2888" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2888" s="2">
+        <v>9844951</v>
+      </c>
+      <c r="J2888" s="2">
+        <v>9844951</v>
+      </c>
+    </row>
+    <row r="2889" spans="4:10">
+      <c r="D2889" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2889" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2889" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2889" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2889" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2889" s="2">
+        <v>8031362</v>
+      </c>
+      <c r="J2889" s="2">
+        <v>9637634.39999999</v>
+      </c>
+    </row>
+    <row r="2890" spans="4:10">
+      <c r="D2890" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2890" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2890" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2890" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2890" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2890" s="2">
+        <v>117000</v>
+      </c>
+      <c r="J2890" s="2">
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="2891" spans="4:10">
+      <c r="D2891" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2891" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2891" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2891" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2891" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2891" s="2">
+        <v>2390279</v>
+      </c>
+      <c r="J2891" s="2">
+        <v>2390279</v>
+      </c>
+    </row>
+    <row r="2892" spans="4:10">
+      <c r="D2892" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2892" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2892" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2892" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2892" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2892" s="2">
+        <v>1754881</v>
+      </c>
+      <c r="J2892" s="2">
+        <v>1998627.8</v>
+      </c>
+    </row>
+    <row r="2893" spans="4:10">
+      <c r="D2893" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2893" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2893" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2893" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2893" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2893" s="2">
+        <v>10579435</v>
+      </c>
+      <c r="J2893" s="2">
+        <v>12695322</v>
+      </c>
+    </row>
+    <row r="2894" spans="4:10">
+      <c r="D2894" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2894" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2894" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2894" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2894" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2894" s="2">
+        <v>2681667</v>
+      </c>
+      <c r="J2894" s="2">
+        <v>2681667</v>
+      </c>
+    </row>
+    <row r="2895" spans="4:10">
+      <c r="D2895" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2895" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2895" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2895" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2895" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2895" s="2">
+        <v>591454</v>
+      </c>
+      <c r="J2895" s="2">
+        <v>591454</v>
+      </c>
+    </row>
+    <row r="2896" spans="4:10">
+      <c r="D2896" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2896" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2896" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2896" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2896" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2896" s="2">
+        <v>2309625</v>
+      </c>
+      <c r="J2896" s="2">
+        <v>2309625</v>
+      </c>
+    </row>
+    <row r="2897" spans="4:10">
+      <c r="D2897" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2897" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2897" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2897" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2897" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2897" s="2">
+        <v>1141357</v>
+      </c>
+      <c r="J2897" s="2">
+        <v>1141357</v>
+      </c>
+    </row>
+    <row r="2898" spans="4:10">
+      <c r="D2898" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2898" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2898" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2898" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2898" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2898" s="2">
+        <v>8289136</v>
+      </c>
+      <c r="J2898" s="2">
+        <v>8289136</v>
+      </c>
+    </row>
+    <row r="2899" spans="4:10">
+      <c r="D2899" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2899" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2899" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2899" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2899" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2899" s="2">
+        <v>7135004</v>
+      </c>
+      <c r="J2899" s="2">
+        <v>7135004</v>
+      </c>
+    </row>
+    <row r="2900" spans="4:10">
+      <c r="D2900" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2900" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2900" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2900" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2900" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2900" s="2">
+        <v>33796</v>
+      </c>
+      <c r="J2900" s="2">
+        <v>33796</v>
+      </c>
+    </row>
+    <row r="2901" spans="4:10">
+      <c r="D2901" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2901" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2901" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2901" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2901" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2901" s="2">
+        <v>2515093</v>
+      </c>
+      <c r="J2901" s="2">
+        <v>2515093</v>
+      </c>
+    </row>
+    <row r="2902" spans="4:10">
+      <c r="D2902" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2902" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2902" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2902" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2902" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2902" s="2">
+        <v>13779149</v>
+      </c>
+      <c r="J2902" s="2">
+        <v>16534978.8</v>
+      </c>
+    </row>
+    <row r="2903" spans="4:10">
+      <c r="D2903" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2903" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2903" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2903" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2903" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2903" s="2">
+        <v>1169636</v>
+      </c>
+      <c r="J2903" s="2">
+        <v>1169636</v>
+      </c>
+    </row>
+    <row r="2904" spans="4:10">
+      <c r="D2904" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2904" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2904" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2904" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2904" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2904" s="2">
+        <v>7101421</v>
+      </c>
+      <c r="J2904" s="2">
+        <v>7101421</v>
+      </c>
+    </row>
+    <row r="2905" spans="4:10">
+      <c r="D2905" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2905" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2905" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2905" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2905" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2905" s="2">
+        <v>1725091</v>
+      </c>
+      <c r="J2905" s="2">
+        <v>1725091</v>
+      </c>
+    </row>
+    <row r="2906" spans="4:10">
+      <c r="D2906" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2906" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2906" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2906" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2906" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2906" s="2">
+        <v>7835812</v>
+      </c>
+      <c r="J2906" s="2">
+        <v>7835812</v>
+      </c>
+    </row>
+    <row r="2907" spans="4:10">
+      <c r="D2907" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2907" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2907" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2907" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2907" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2907" s="2">
+        <v>3591541</v>
+      </c>
+      <c r="J2907" s="2">
+        <v>3591541</v>
+      </c>
+    </row>
+    <row r="2908" spans="4:10">
+      <c r="D2908" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2908" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2908" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2908" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2908" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2908" s="2">
+        <v>4523793</v>
+      </c>
+      <c r="J2908" s="2">
+        <v>5134209.4</v>
+      </c>
+    </row>
+    <row r="2909" spans="4:10">
+      <c r="D2909" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2909" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2909" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2909" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2909" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2909" s="2">
+        <v>3533254</v>
+      </c>
+      <c r="J2909" s="2">
+        <v>3533254</v>
+      </c>
+    </row>
+    <row r="2910" spans="4:10">
+      <c r="D2910" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2910" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2910" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2910" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2910" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2910" s="2">
+        <v>2932940</v>
+      </c>
+      <c r="J2910" s="2">
+        <v>3519528</v>
+      </c>
+    </row>
+    <row r="2911" spans="4:10">
+      <c r="D2911" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2911" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2911" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2911" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2911" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2911" s="2">
+        <v>4630</v>
+      </c>
+      <c r="J2911" s="2">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="2912" spans="4:10">
+      <c r="D2912" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2912" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2912" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2912" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2912" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2912" s="2">
+        <v>4147962</v>
+      </c>
+      <c r="J2912" s="2">
+        <v>4147962</v>
+      </c>
+    </row>
+    <row r="2913" spans="4:10">
+      <c r="D2913" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2913" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2913" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2913" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2913" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2913" s="2">
+        <v>2223147</v>
+      </c>
+      <c r="J2913" s="2">
+        <v>2223147</v>
+      </c>
+    </row>
+    <row r="2914" spans="4:10">
+      <c r="D2914" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2914" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2914" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2914" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2914" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2914" s="2">
+        <v>281017</v>
+      </c>
+      <c r="J2914" s="2">
+        <v>281017</v>
+      </c>
+    </row>
+    <row r="2915" spans="4:10">
+      <c r="D2915" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2915" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2915" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2915" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2915" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2915" s="2">
+        <v>1403008</v>
+      </c>
+      <c r="J2915" s="2">
+        <v>1403008</v>
+      </c>
+    </row>
+    <row r="2916" spans="4:10">
+      <c r="D2916" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2916" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2916" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2916" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2916" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2916" s="2">
+        <v>1889869</v>
+      </c>
+      <c r="J2916" s="2">
+        <v>2267842.8</v>
+      </c>
+    </row>
+    <row r="2917" spans="4:10">
+      <c r="D2917" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2917" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2917" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2917" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2917" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2917" s="2">
+        <v>16666</v>
+      </c>
+      <c r="J2917" s="2">
+        <v>16666</v>
+      </c>
+    </row>
+    <row r="2918" spans="4:10">
+      <c r="D2918" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2918" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2918" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2918" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2918" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2918" s="2">
+        <v>1105557</v>
+      </c>
+      <c r="J2918" s="2">
+        <v>1105557</v>
+      </c>
+    </row>
+    <row r="2919" spans="4:10">
+      <c r="D2919" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2919" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2919" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2919" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2919" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2919" s="2">
+        <v>6340742</v>
+      </c>
+      <c r="J2919" s="2">
+        <v>6340742</v>
+      </c>
+    </row>
+    <row r="2920" spans="4:10">
+      <c r="D2920" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2920" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2920" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2920" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2920" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2920" s="2">
+        <v>7564660</v>
+      </c>
+      <c r="J2920" s="2">
+        <v>7564660</v>
+      </c>
+    </row>
+    <row r="2921" spans="4:10">
+      <c r="D2921" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2921" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2921" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2921" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2921" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2921" s="2">
+        <v>9100863</v>
+      </c>
+      <c r="J2921" s="2">
+        <v>9100863</v>
+      </c>
+    </row>
+    <row r="2922" spans="4:10">
+      <c r="D2922" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2922" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2922" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2922" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2922" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2922" s="2">
+        <v>20833</v>
+      </c>
+      <c r="J2922" s="2">
+        <v>20833</v>
+      </c>
+    </row>
+    <row r="2923" spans="4:10">
+      <c r="D2923" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2923" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2923" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2923" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2923" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2923" s="2">
+        <v>3538288</v>
+      </c>
+      <c r="J2923" s="2">
+        <v>3538288</v>
+      </c>
+    </row>
+    <row r="2924" spans="4:10">
+      <c r="D2924" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2924" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2924" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2924" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2924" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2924" s="2">
+        <v>2444905</v>
+      </c>
+      <c r="J2924" s="2">
+        <v>2444905</v>
+      </c>
+    </row>
+    <row r="2925" spans="4:10">
+      <c r="D2925" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2925" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2925" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2925" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2925" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2925" s="2">
+        <v>1508316</v>
+      </c>
+      <c r="J2925" s="2">
+        <v>1508316</v>
+      </c>
+    </row>
+    <row r="2926" spans="4:10">
+      <c r="D2926" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2926" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2926" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2926" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2926" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2926" s="2">
+        <v>2901529</v>
+      </c>
+      <c r="J2926" s="2">
+        <v>3481834.8</v>
+      </c>
+    </row>
+    <row r="2927" spans="4:10">
+      <c r="D2927" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2927" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2927" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2927" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2927" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2927" s="2">
+        <v>3686434</v>
+      </c>
+      <c r="J2927" s="2">
+        <v>3686434</v>
+      </c>
+    </row>
+    <row r="2928" spans="4:10">
+      <c r="D2928" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2928" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2928" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2928" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2928" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2928" s="2">
+        <v>12089994</v>
+      </c>
+      <c r="J2928" s="2">
+        <v>14507992.8</v>
+      </c>
+    </row>
+    <row r="2929" spans="4:10">
+      <c r="D2929" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2929" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2929" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2929" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2929" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2929" s="2">
+        <v>4060451</v>
+      </c>
+      <c r="J2929" s="2">
+        <v>4060451</v>
+      </c>
+    </row>
+    <row r="2930" spans="4:10">
+      <c r="D2930" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2930" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2930" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2930" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2930" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2930" s="2">
+        <v>69444</v>
+      </c>
+      <c r="J2930" s="2">
+        <v>69444</v>
+      </c>
+    </row>
+    <row r="2931" spans="4:10">
+      <c r="D2931" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2931" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2931" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2931" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2931" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2931" s="2">
+        <v>1835371</v>
+      </c>
+      <c r="J2931" s="2">
+        <v>1835371</v>
+      </c>
+    </row>
+    <row r="2932" spans="4:10">
+      <c r="D2932" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2932" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2932" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2932" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2932" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2932" s="2">
+        <v>2939035</v>
+      </c>
+      <c r="J2932" s="2">
+        <v>2939035</v>
+      </c>
+    </row>
+    <row r="2933" spans="4:10">
+      <c r="D2933" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2933" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2933" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2933" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2933" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2933" s="2">
+        <v>780180</v>
+      </c>
+      <c r="J2933" s="2">
+        <v>780180</v>
+      </c>
+    </row>
+    <row r="2934" spans="4:10">
+      <c r="D2934" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2934" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2934" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2934" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2934" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2934" s="2">
+        <v>1452315</v>
+      </c>
+      <c r="J2934" s="2">
+        <v>1452315</v>
+      </c>
+    </row>
+    <row r="2935" spans="4:10">
+      <c r="D2935" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2935" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2935" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2935" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2935" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2935" s="2">
+        <v>945371</v>
+      </c>
+      <c r="J2935" s="2">
+        <v>1134445.2</v>
+      </c>
+    </row>
+    <row r="2936" spans="4:10">
+      <c r="D2936" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2936" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2936" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2936" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2936" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2936" s="2">
+        <v>4397090</v>
+      </c>
+      <c r="J2936" s="2">
+        <v>5276508</v>
+      </c>
+    </row>
+    <row r="2937" spans="4:10">
+      <c r="D2937" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2937" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2937" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2937" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2937" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2937" s="2">
+        <v>3282873</v>
+      </c>
+      <c r="J2937" s="2">
+        <v>3282873</v>
+      </c>
+    </row>
+    <row r="2938" spans="4:10">
+      <c r="D2938" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2938" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2938" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2938" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2938" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2938" s="2">
+        <v>834721</v>
+      </c>
+      <c r="J2938" s="2">
+        <v>834721</v>
+      </c>
+    </row>
+    <row r="2939" spans="4:10">
+      <c r="D2939" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2939" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2939" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2939" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2939" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2939" s="2">
+        <v>1538518</v>
+      </c>
+      <c r="J2939" s="2">
+        <v>1846221.6</v>
+      </c>
+    </row>
+    <row r="2940" spans="4:10">
+      <c r="D2940" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2940" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2940" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2940" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2940" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2940" s="2">
+        <v>1177592</v>
+      </c>
+      <c r="J2940" s="2">
+        <v>1177592</v>
+      </c>
+    </row>
+    <row r="2941" spans="4:10">
+      <c r="D2941" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2941" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2941" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2941" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2941" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2941" s="2">
+        <v>2939086</v>
+      </c>
+      <c r="J2941" s="2">
+        <v>3526903.2</v>
+      </c>
+    </row>
+    <row r="2942" spans="4:10">
+      <c r="D2942" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2942" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2942" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2942" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2942" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2942" s="2">
+        <v>40909</v>
+      </c>
+      <c r="J2942" s="2">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="2943" spans="4:10">
+      <c r="D2943" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2943" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2943" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2943" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2943" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2943" s="2">
+        <v>3893038</v>
+      </c>
+      <c r="J2943" s="2">
+        <v>4671645.6</v>
+      </c>
+    </row>
+    <row r="2944" spans="4:10">
+      <c r="D2944" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2944" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2944" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2944" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2944" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2944" s="2">
+        <v>475923</v>
+      </c>
+      <c r="J2944" s="2">
+        <v>475923</v>
+      </c>
+    </row>
+    <row r="2945" spans="4:10">
+      <c r="D2945" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2945" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2945" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2945" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2945" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2945" s="2">
+        <v>6254608</v>
+      </c>
+      <c r="J2945" s="2">
+        <v>6254608</v>
+      </c>
+    </row>
+    <row r="2946" spans="4:10">
+      <c r="D2946" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2946" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2946" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2946" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2946" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2946" s="2">
+        <v>7925095</v>
+      </c>
+      <c r="J2946" s="2">
+        <v>7925095</v>
+      </c>
+    </row>
+    <row r="2947" spans="4:10">
+      <c r="D2947" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2947" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2947" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2947" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2947" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2947" s="2">
+        <v>2033623</v>
+      </c>
+      <c r="J2947" s="2">
+        <v>2033623</v>
+      </c>
+    </row>
+    <row r="2948" spans="4:10">
+      <c r="D2948" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2948" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2948" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2948" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2948" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2948" s="2">
+        <v>2306622</v>
+      </c>
+      <c r="J2948" s="2">
+        <v>2306622</v>
+      </c>
+    </row>
+    <row r="2949" spans="4:10">
+      <c r="D2949" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2949" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2949" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2949" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2949" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2949" s="2">
+        <v>4253140</v>
+      </c>
+      <c r="J2949" s="2">
+        <v>5103768</v>
+      </c>
+    </row>
+    <row r="2950" spans="4:10">
+      <c r="D2950" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2950" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2950" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2950" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2950" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2950" s="2">
+        <v>3949366</v>
+      </c>
+      <c r="J2950" s="2">
+        <v>4739239.2</v>
+      </c>
+    </row>
+    <row r="2951" spans="4:10">
+      <c r="D2951" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2951" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2951" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2951" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2951" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2951" s="2">
+        <v>5022968</v>
+      </c>
+      <c r="J2951" s="2">
+        <v>6027561.6</v>
+      </c>
+    </row>
+    <row r="2952" spans="4:10">
+      <c r="D2952" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2952" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2952" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2952" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2952" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2952" s="2">
+        <v>1056945</v>
+      </c>
+      <c r="J2952" s="2">
+        <v>1056945</v>
+      </c>
+    </row>
+    <row r="2953" spans="4:10">
+      <c r="D2953" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2953" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2953" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2953" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2953" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2953" s="2">
+        <v>1559897</v>
+      </c>
+      <c r="J2953" s="2">
+        <v>1788328.8</v>
+      </c>
+    </row>
+    <row r="2954" spans="4:10">
+      <c r="D2954" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2954" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2954" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2954" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2954" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2954" s="2">
+        <v>7830415</v>
+      </c>
+      <c r="J2954" s="2">
+        <v>9396498</v>
+      </c>
+    </row>
+    <row r="2955" spans="4:10">
+      <c r="D2955" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2955" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2955" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2955" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2955" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2955" s="2">
+        <v>20576850</v>
+      </c>
+      <c r="J2955" s="2">
+        <v>24692220</v>
+      </c>
+    </row>
+    <row r="2956" spans="4:10">
+      <c r="D2956" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2956" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2956" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2956" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2956" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2956" s="2">
+        <v>6347774</v>
+      </c>
+      <c r="J2956" s="2">
+        <v>6347774</v>
+      </c>
+    </row>
+    <row r="2957" spans="4:10">
+      <c r="D2957" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2957" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2957" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2957" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2957" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2957" s="2">
+        <v>8645408</v>
+      </c>
+      <c r="J2957" s="2">
+        <v>10374489.6</v>
+      </c>
+    </row>
+    <row r="2958" spans="4:10">
+      <c r="D2958" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2958" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2958" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2958" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2958" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2958" s="2">
+        <v>8915638</v>
+      </c>
+      <c r="J2958" s="2">
+        <v>8915638</v>
+      </c>
+    </row>
+    <row r="2959" spans="4:10">
+      <c r="D2959" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2959" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2959" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2959" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2959" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2959" s="2">
+        <v>4725092</v>
+      </c>
+      <c r="J2959" s="2">
+        <v>4725092</v>
+      </c>
+    </row>
+    <row r="2960" spans="4:10">
+      <c r="D2960" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2960" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2960" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2960" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2960" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2960" s="2">
+        <v>7463146</v>
+      </c>
+      <c r="J2960" s="2">
+        <v>7463146</v>
+      </c>
+    </row>
+    <row r="2961" spans="4:10">
+      <c r="D2961" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2961" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2961" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2961" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2961" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2961" s="2">
+        <v>1532749</v>
+      </c>
+      <c r="J2961" s="2">
+        <v>1839298.8</v>
+      </c>
+    </row>
+    <row r="2962" spans="4:10">
+      <c r="D2962" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2962" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2962" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2962" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2962" s="2">
+        <v>4461736</v>
+      </c>
+      <c r="J2962" s="2">
+        <v>4461736</v>
+      </c>
+    </row>
+    <row r="2963" spans="4:10">
+      <c r="D2963" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2963" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2963" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2963" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2963" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2963" s="2">
+        <v>5238517</v>
+      </c>
+      <c r="J2963" s="2">
+        <v>5238517</v>
+      </c>
+    </row>
+    <row r="2964" spans="4:10">
+      <c r="D2964" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2964" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2964" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2964" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2964" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2964" s="2">
+        <v>1464352</v>
+      </c>
+      <c r="J2964" s="2">
+        <v>1757222.4</v>
+      </c>
+    </row>
+    <row r="2965" spans="4:10">
+      <c r="D2965" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2965" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2965" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2965" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2965" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2965" s="2">
+        <v>9798075</v>
+      </c>
+      <c r="J2965" s="2">
+        <v>9798075</v>
+      </c>
+    </row>
+    <row r="2966" spans="4:10">
+      <c r="D2966" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2966" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2966" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2966" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2966" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2966" s="2">
+        <v>3534678</v>
+      </c>
+      <c r="J2966" s="2">
+        <v>3534678</v>
+      </c>
+    </row>
+    <row r="2967" spans="4:10">
+      <c r="D2967" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2967" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2967" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2967" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2967" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2967" s="2">
+        <v>1321552</v>
+      </c>
+      <c r="J2967" s="2">
+        <v>1321552</v>
+      </c>
+    </row>
+    <row r="2968" spans="4:10">
+      <c r="D2968" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2968" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2968" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2968" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2968" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2968" s="2">
+        <v>1522680</v>
+      </c>
+      <c r="J2968" s="2">
+        <v>1680643.2</v>
+      </c>
+    </row>
+    <row r="2969" spans="4:10">
+      <c r="D2969" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2969" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2969" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2969" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2969" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2969" s="2">
+        <v>2571502</v>
+      </c>
+      <c r="J2969" s="2">
+        <v>2571502</v>
+      </c>
+    </row>
+    <row r="2970" spans="4:10">
+      <c r="D2970" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2970" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2970" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2970" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2970" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2970" s="2">
+        <v>2169764</v>
+      </c>
+      <c r="J2970" s="2">
+        <v>2169764</v>
+      </c>
+    </row>
+    <row r="2971" spans="4:10">
+      <c r="D2971" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2971" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2971" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2971" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2971" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2971" s="2">
+        <v>8136097</v>
+      </c>
+      <c r="J2971" s="2">
+        <v>9763316.40000001</v>
+      </c>
+    </row>
+    <row r="2972" spans="4:10">
+      <c r="D2972" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2972" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2972" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2972" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2972" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2972" s="2">
+        <v>10698347</v>
+      </c>
+      <c r="J2972" s="2">
+        <v>12838016.4</v>
+      </c>
+    </row>
+    <row r="2973" spans="4:10">
+      <c r="D2973" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2973" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2973" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2973" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2973" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2973" s="2">
+        <v>556483</v>
+      </c>
+      <c r="J2973" s="2">
+        <v>667779.6</v>
+      </c>
+    </row>
+    <row r="2974" spans="4:10">
+      <c r="D2974" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2974" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2974" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2974" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2974" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2974" s="2">
+        <v>612817</v>
+      </c>
+      <c r="J2974" s="2">
+        <v>612817</v>
+      </c>
+    </row>
+    <row r="2975" spans="4:10">
+      <c r="D2975" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2975" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2975" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2975" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2975" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2975" s="2">
+        <v>1376962</v>
+      </c>
+      <c r="J2975" s="2">
+        <v>1376962</v>
+      </c>
+    </row>
+    <row r="2976" spans="4:10">
+      <c r="D2976" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2976" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2976" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2976" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2976" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2976" s="2">
+        <v>4634800</v>
+      </c>
+      <c r="J2976" s="2">
+        <v>5561760</v>
+      </c>
+    </row>
+    <row r="2977" spans="4:10">
+      <c r="D2977" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2977" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2977" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2977" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2977" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2977" s="2">
+        <v>1142352</v>
+      </c>
+      <c r="J2977" s="2">
+        <v>1267451.2</v>
+      </c>
+    </row>
+    <row r="2978" spans="4:10">
+      <c r="D2978" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2978" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2978" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2978" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2978" s="2">
+        <v>4692580</v>
+      </c>
+      <c r="J2978" s="2">
+        <v>4692580</v>
+      </c>
+    </row>
+    <row r="2979" spans="4:10">
+      <c r="D2979" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2979" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2979" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2979" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2979" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2979" s="2">
+        <v>8800818</v>
+      </c>
+      <c r="J2979" s="2">
+        <v>10560981.6</v>
+      </c>
+    </row>
+    <row r="2980" spans="4:10">
+      <c r="D2980" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2980" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2980" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2980" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2980" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2980" s="2">
+        <v>2477873</v>
+      </c>
+      <c r="J2980" s="2">
+        <v>2477873</v>
+      </c>
+    </row>
+    <row r="2981" spans="4:10">
+      <c r="D2981" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2981" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2981" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2981" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2981" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2981" s="2">
+        <v>10240503</v>
+      </c>
+      <c r="J2981" s="2">
+        <v>10240503</v>
+      </c>
+    </row>
+    <row r="2982" spans="4:10">
+      <c r="D2982" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2982" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2982" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2982" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2982" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2982" s="2">
+        <v>473609</v>
+      </c>
+      <c r="J2982" s="2">
+        <v>473609</v>
+      </c>
+    </row>
+    <row r="2983" spans="4:10">
+      <c r="D2983" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2983" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2983" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2983" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2983" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2983" s="2">
+        <v>4623348</v>
+      </c>
+      <c r="J2983" s="2">
+        <v>5165404</v>
+      </c>
+    </row>
+    <row r="2984" spans="4:10">
+      <c r="D2984" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2984" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2984" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2984" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2984" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2984" s="2">
+        <v>8685358</v>
+      </c>
+      <c r="J2984" s="2">
+        <v>10422429.6</v>
+      </c>
+    </row>
+    <row r="2985" spans="4:10">
+      <c r="D2985" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2985" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2985" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2985" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2985" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2985" s="2">
+        <v>2033448</v>
+      </c>
+      <c r="J2985" s="2">
+        <v>2033448</v>
+      </c>
+    </row>
+    <row r="2986" spans="4:10">
+      <c r="D2986" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2986" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2986" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2986" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2986" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2986" s="2">
+        <v>3413104</v>
+      </c>
+      <c r="J2986" s="2">
+        <v>3413104</v>
+      </c>
+    </row>
+    <row r="2987" spans="4:10">
+      <c r="D2987" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2987" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2987" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2987" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2987" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2987" s="2">
+        <v>1350094</v>
+      </c>
+      <c r="J2987" s="2">
+        <v>1620112.8</v>
+      </c>
+    </row>
+    <row r="2988" spans="4:10">
+      <c r="D2988" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2988" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2988" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2988" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2988" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2988" s="2">
+        <v>5295353</v>
+      </c>
+      <c r="J2988" s="2">
+        <v>6354423.6</v>
+      </c>
+    </row>
+    <row r="2989" spans="4:10">
+      <c r="D2989" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2989" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2989" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2989" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2989" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2989" s="2">
+        <v>831573</v>
+      </c>
+      <c r="J2989" s="2">
+        <v>831573</v>
+      </c>
+    </row>
+    <row r="2990" spans="4:10">
+      <c r="D2990" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2990" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2990" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2990" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2990" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2990" s="2">
+        <v>3431058</v>
+      </c>
+      <c r="J2990" s="2">
+        <v>3431058</v>
+      </c>
+    </row>
+    <row r="2991" spans="4:10">
+      <c r="D2991" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2991" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2991" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2991" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2991" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2991" s="2">
+        <v>2055261</v>
+      </c>
+      <c r="J2991" s="2">
+        <v>2466313.2</v>
+      </c>
+    </row>
+    <row r="2992" spans="4:10">
+      <c r="D2992" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2992" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2992" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2992" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2992" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2992" s="2">
+        <v>12398589</v>
+      </c>
+      <c r="J2992" s="2">
+        <v>12398589</v>
+      </c>
+    </row>
+    <row r="2993" spans="4:10">
+      <c r="D2993" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2993" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2993" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2993" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2993" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2993" s="2">
+        <v>10895835</v>
+      </c>
+      <c r="J2993" s="2">
+        <v>10895835</v>
+      </c>
+    </row>
+    <row r="2994" spans="4:10">
+      <c r="D2994" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2994" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2994" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2994" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2994" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2994" s="2">
+        <v>4576668</v>
+      </c>
+      <c r="J2994" s="2">
+        <v>4576668</v>
+      </c>
+    </row>
+    <row r="2995" spans="4:10">
+      <c r="D2995" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2995" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2995" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2995" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2995" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2995" s="2">
+        <v>15741</v>
+      </c>
+      <c r="J2995" s="2">
+        <v>15741</v>
+      </c>
+    </row>
+    <row r="2996" spans="4:10">
+      <c r="D2996" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2996" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2996" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2996" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2996" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2996" s="2">
+        <v>3252500</v>
+      </c>
+      <c r="J2996" s="2">
+        <v>3252500</v>
+      </c>
+    </row>
+    <row r="2997" spans="4:10">
+      <c r="D2997" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2997" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2997" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2997" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2997" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2997" s="2">
+        <v>2675362</v>
+      </c>
+      <c r="J2997" s="2">
+        <v>2675362</v>
+      </c>
+    </row>
+    <row r="2998" spans="4:10">
+      <c r="D2998" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2998" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2998" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2998" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2998" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2998" s="2">
+        <v>4952594</v>
+      </c>
+      <c r="J2998" s="2">
+        <v>4952594</v>
+      </c>
+    </row>
+    <row r="2999" spans="4:10">
+      <c r="D2999" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E2999" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2999" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2999" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2999" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2999" s="2">
+        <v>2256782</v>
+      </c>
+      <c r="J2999" s="2">
+        <v>2708138.4</v>
+      </c>
+    </row>
+    <row r="3000" spans="4:10">
+      <c r="D3000" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3000" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3000" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3000" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3000" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3000" s="2">
+        <v>1538015</v>
+      </c>
+      <c r="J3000" s="2">
+        <v>1538015</v>
+      </c>
+    </row>
+    <row r="3001" spans="4:10">
+      <c r="D3001" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3001" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3001" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3001" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3001" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3001" s="2">
+        <v>1864117</v>
+      </c>
+      <c r="J3001" s="2">
+        <v>2073816.4</v>
+      </c>
+    </row>
+    <row r="3002" spans="4:10">
+      <c r="D3002" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3002" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3002" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3002" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3002" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3002" s="2">
+        <v>3733616</v>
+      </c>
+      <c r="J3002" s="2">
+        <v>4480339.2</v>
+      </c>
+    </row>
+    <row r="3003" spans="4:10">
+      <c r="D3003" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3003" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3003" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3003" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3003" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3003" s="2">
+        <v>1589520</v>
+      </c>
+      <c r="J3003" s="2">
+        <v>1907424</v>
+      </c>
+    </row>
+    <row r="3004" spans="4:10">
+      <c r="D3004" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3004" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3004" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3004" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3004" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3004" s="2">
+        <v>4393375</v>
+      </c>
+      <c r="J3004" s="2">
+        <v>4393375</v>
+      </c>
+    </row>
+    <row r="3005" spans="4:10">
+      <c r="D3005" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3005" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3005" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3005" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3005" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3005" s="2">
+        <v>398636</v>
+      </c>
+      <c r="J3005" s="2">
+        <v>398636</v>
+      </c>
+    </row>
+    <row r="3006" spans="4:10">
+      <c r="D3006" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3006" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3006" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3006" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3006" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3006" s="2">
+        <v>1994886</v>
+      </c>
+      <c r="J3006" s="2">
+        <v>2393863.2</v>
+      </c>
+    </row>
+    <row r="3007" spans="4:10">
+      <c r="D3007" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3007" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3007" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3007" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3007" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3007" s="2">
+        <v>1245418</v>
+      </c>
+      <c r="J3007" s="2">
+        <v>1245418</v>
+      </c>
+    </row>
+    <row r="3008" spans="4:10">
+      <c r="D3008" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3008" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3008" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3008" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3008" s="2">
+        <v>4432371</v>
+      </c>
+      <c r="J3008" s="2">
+        <v>4432371</v>
+      </c>
+    </row>
+    <row r="3009" spans="4:10">
+      <c r="D3009" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3009" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3009" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3009" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3009" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3009" s="2">
+        <v>1651391</v>
+      </c>
+      <c r="J3009" s="2">
+        <v>1651391</v>
+      </c>
+    </row>
+    <row r="3010" spans="4:10">
+      <c r="D3010" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3010" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3010" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3010" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3010" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3010" s="2">
+        <v>3566669</v>
+      </c>
+      <c r="J3010" s="2">
+        <v>3566669</v>
+      </c>
+    </row>
+    <row r="3011" spans="4:10">
+      <c r="D3011" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3011" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3011" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3011" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3011" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3011" s="2">
+        <v>14405829</v>
+      </c>
+      <c r="J3011" s="2">
+        <v>14405829</v>
+      </c>
+    </row>
+    <row r="3012" spans="4:10">
+      <c r="D3012" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3012" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3012" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3012" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3012" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3012" s="2">
+        <v>1424099</v>
+      </c>
+      <c r="J3012" s="2">
+        <v>1424099</v>
+      </c>
+    </row>
+    <row r="3013" spans="4:10">
+      <c r="D3013" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3013" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3013" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3013" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3013" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3013" s="2">
+        <v>4917380</v>
+      </c>
+      <c r="J3013" s="2">
+        <v>5900856</v>
+      </c>
+    </row>
+    <row r="3014" spans="4:10">
+      <c r="D3014" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3014" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3014" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3014" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3014" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3014" s="2">
+        <v>4843197</v>
+      </c>
+      <c r="J3014" s="2">
+        <v>5811836.4</v>
+      </c>
+    </row>
+    <row r="3015" spans="4:10">
+      <c r="D3015" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3015" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3015" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3015" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3015" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3015" s="2">
+        <v>10283973</v>
+      </c>
+      <c r="J3015" s="2">
+        <v>12340767.6</v>
+      </c>
+    </row>
+    <row r="3016" spans="4:10">
+      <c r="D3016" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3016" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3016" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3016" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3016" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3016" s="2">
+        <v>1065344</v>
+      </c>
+      <c r="J3016" s="2">
+        <v>1065344</v>
+      </c>
+    </row>
+    <row r="3017" spans="4:10">
+      <c r="D3017" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3017" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3017" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3017" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3017" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3017" s="2">
+        <v>1087636</v>
+      </c>
+      <c r="J3017" s="2">
+        <v>1087636</v>
+      </c>
+    </row>
+    <row r="3018" spans="4:10">
+      <c r="D3018" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3018" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3018" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3018" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3018" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3018" s="2">
+        <v>1672434</v>
+      </c>
+      <c r="J3018" s="2">
+        <v>1672434</v>
+      </c>
+    </row>
+    <row r="3019" spans="4:10">
+      <c r="D3019" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3019" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3019" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3019" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3019" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3019" s="2">
+        <v>5704015</v>
+      </c>
+      <c r="J3019" s="2">
+        <v>6844818</v>
+      </c>
+    </row>
+    <row r="3020" spans="4:10">
+      <c r="D3020" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3020" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3020" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3020" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3020" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3020" s="2">
+        <v>574417</v>
+      </c>
+      <c r="J3020" s="2">
+        <v>574417</v>
+      </c>
+    </row>
+    <row r="3021" spans="4:10">
+      <c r="D3021" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3021" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3021" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3021" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3021" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3021" s="2">
+        <v>2127128</v>
+      </c>
+      <c r="J3021" s="2">
+        <v>2127128</v>
+      </c>
+    </row>
+    <row r="3022" spans="4:10">
+      <c r="D3022" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3022" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3022" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3022" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3022" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3022" s="2">
+        <v>1622618</v>
+      </c>
+      <c r="J3022" s="2">
+        <v>1622618</v>
+      </c>
+    </row>
+    <row r="3023" spans="4:10">
+      <c r="D3023" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3023" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3023" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3023" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3023" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3023" s="2">
+        <v>5368986</v>
+      </c>
+      <c r="J3023" s="2">
+        <v>5368986</v>
+      </c>
+    </row>
+    <row r="3024" spans="4:10">
+      <c r="D3024" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3024" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3024" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3024" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3024" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3024" s="2">
+        <v>8464614</v>
+      </c>
+      <c r="J3024" s="2">
+        <v>10157536.8</v>
+      </c>
+    </row>
+    <row r="3025" spans="4:10">
+      <c r="D3025" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3025" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3025" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3025" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3025" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3025" s="2">
+        <v>12535737</v>
+      </c>
+      <c r="J3025" s="2">
+        <v>15042884.4</v>
+      </c>
+    </row>
+    <row r="3026" spans="4:10">
+      <c r="D3026" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3026" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3026" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3026" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3026" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3026" s="2">
+        <v>1878652</v>
+      </c>
+      <c r="J3026" s="2">
+        <v>1878652</v>
+      </c>
+    </row>
+    <row r="3027" spans="4:10">
+      <c r="D3027" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3027" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3027" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3027" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3027" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3027" s="2">
+        <v>1305400</v>
+      </c>
+      <c r="J3027" s="2">
+        <v>1566480</v>
+      </c>
+    </row>
+    <row r="3028" spans="4:10">
+      <c r="D3028" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3028" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3028" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3028" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3028" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3028" s="2">
+        <v>5200185</v>
+      </c>
+      <c r="J3028" s="2">
+        <v>5200185</v>
+      </c>
+    </row>
+    <row r="3029" spans="4:10">
+      <c r="D3029" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3029" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3029" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3029" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3029" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3029" s="2">
+        <v>45833</v>
+      </c>
+      <c r="J3029" s="2">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="3030" spans="4:10">
+      <c r="D3030" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3030" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3030" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3030" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3030" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3030" s="2">
+        <v>3993703</v>
+      </c>
+      <c r="J3030" s="2">
+        <v>3993703</v>
+      </c>
+    </row>
+    <row r="3031" spans="4:10">
+      <c r="D3031" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3031" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3031" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3031" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3031" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3031" s="2">
+        <v>2531536</v>
+      </c>
+      <c r="J3031" s="2">
+        <v>2531536</v>
+      </c>
+    </row>
+    <row r="3032" spans="4:10">
+      <c r="D3032" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3032" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3032" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3032" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3032" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3032" s="2">
+        <v>8493749</v>
+      </c>
+      <c r="J3032" s="2">
+        <v>8493749</v>
+      </c>
+    </row>
+    <row r="3033" spans="4:10">
+      <c r="D3033" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3033" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3033" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3033" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3033" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3033" s="2">
+        <v>12140945</v>
+      </c>
+      <c r="J3033" s="2">
+        <v>14569134</v>
+      </c>
+    </row>
+    <row r="3034" spans="4:10">
+      <c r="D3034" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3034" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3034" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3034" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3034" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3034" s="2">
+        <v>2319047</v>
+      </c>
+      <c r="J3034" s="2">
+        <v>2319047</v>
+      </c>
+    </row>
+    <row r="3035" spans="4:10">
+      <c r="D3035" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3035" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3035" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3035" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3035" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3035" s="2">
+        <v>3044169</v>
+      </c>
+      <c r="J3035" s="2">
+        <v>3653002.8</v>
+      </c>
+    </row>
+    <row r="3036" spans="4:10">
+      <c r="D3036" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3036" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3036" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3036" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3036" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3036" s="2">
+        <v>850767</v>
+      </c>
+      <c r="J3036" s="2">
+        <v>850767</v>
+      </c>
+    </row>
+    <row r="3037" spans="4:10">
+      <c r="D3037" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3037" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3037" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3037" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3037" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3037" s="2">
+        <v>492129</v>
+      </c>
+      <c r="J3037" s="2">
+        <v>492129</v>
+      </c>
+    </row>
+    <row r="3038" spans="4:10">
+      <c r="D3038" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3038" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3038" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3038" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3038" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3038" s="2">
+        <v>1241905</v>
+      </c>
+      <c r="J3038" s="2">
+        <v>1241905</v>
+      </c>
+    </row>
+    <row r="3039" spans="4:10">
+      <c r="D3039" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3039" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3039" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3039" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3039" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3039" s="2">
+        <v>5565029</v>
+      </c>
+      <c r="J3039" s="2">
+        <v>6359239.2</v>
+      </c>
+    </row>
+    <row r="3040" spans="4:10">
+      <c r="D3040" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3040" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3040" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3040" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3040" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3040" s="2">
+        <v>1139815</v>
+      </c>
+      <c r="J3040" s="2">
+        <v>1139815</v>
+      </c>
+    </row>
+    <row r="3041" spans="4:10">
+      <c r="D3041" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3041" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3041" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3041" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3041" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3041" s="2">
+        <v>2526248</v>
+      </c>
+      <c r="J3041" s="2">
+        <v>2854424.6</v>
+      </c>
+    </row>
+    <row r="3042" spans="4:10">
+      <c r="D3042" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3042" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3042" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3042" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3042" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3042" s="2">
+        <v>2439846</v>
+      </c>
+      <c r="J3042" s="2">
+        <v>2439846</v>
+      </c>
+    </row>
+    <row r="3043" spans="4:10">
+      <c r="D3043" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3043" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3043" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3043" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3043" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3043" s="2">
+        <v>1275139</v>
+      </c>
+      <c r="J3043" s="2">
+        <v>1530166.8</v>
+      </c>
+    </row>
+    <row r="3044" spans="4:10">
+      <c r="D3044" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3044" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3044" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3044" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3044" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3044" s="2">
+        <v>3548275</v>
+      </c>
+      <c r="J3044" s="2">
+        <v>3548275</v>
+      </c>
+    </row>
+    <row r="3045" spans="4:10">
+      <c r="D3045" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3045" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3045" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3045" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3045" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3045" s="2">
+        <v>2477315</v>
+      </c>
+      <c r="J3045" s="2">
+        <v>2477315</v>
+      </c>
+    </row>
+    <row r="3046" spans="4:10">
+      <c r="D3046" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3046" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3046" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3046" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3046" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3046" s="2">
+        <v>3641758</v>
+      </c>
+      <c r="J3046" s="2">
+        <v>3641758</v>
+      </c>
+    </row>
+    <row r="3047" spans="4:10">
+      <c r="D3047" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3047" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3047" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3047" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3047" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3047" s="2">
+        <v>438364</v>
+      </c>
+      <c r="J3047" s="2">
+        <v>438364</v>
+      </c>
+    </row>
+    <row r="3048" spans="4:10">
+      <c r="D3048" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3048" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3048" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3048" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3048" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3048" s="2">
+        <v>2067315</v>
+      </c>
+      <c r="J3048" s="2">
+        <v>2067315</v>
+      </c>
+    </row>
+    <row r="3049" spans="4:10">
+      <c r="D3049" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3049" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3049" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3049" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3049" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3049" s="2">
+        <v>3043519</v>
+      </c>
+      <c r="J3049" s="2">
+        <v>3652222.8</v>
+      </c>
+    </row>
+    <row r="3050" spans="4:10">
+      <c r="D3050" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3050" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3050" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3050" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3050" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3050" s="2">
+        <v>3278949</v>
+      </c>
+      <c r="J3050" s="2">
+        <v>3278949</v>
+      </c>
+    </row>
+    <row r="3051" spans="4:10">
+      <c r="D3051" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3051" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3051" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3051" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3051" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3051" s="2">
+        <v>4495093</v>
+      </c>
+      <c r="J3051" s="2">
+        <v>4495093</v>
+      </c>
+    </row>
+    <row r="3052" spans="4:10">
+      <c r="D3052" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3052" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3052" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3052" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3052" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3052" s="2">
+        <v>2819882</v>
+      </c>
+      <c r="J3052" s="2">
+        <v>3383858.4</v>
+      </c>
+    </row>
+    <row r="3053" spans="4:10">
+      <c r="D3053" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3053" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3053" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3053" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3053" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3053" s="2">
+        <v>9078367</v>
+      </c>
+      <c r="J3053" s="2">
+        <v>10894040.4</v>
+      </c>
+    </row>
+    <row r="3054" spans="4:10">
+      <c r="D3054" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3054" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3054" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3054" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3054" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3054" s="2">
+        <v>2030550</v>
+      </c>
+      <c r="J3054" s="2">
+        <v>2030550</v>
+      </c>
+    </row>
+    <row r="3055" spans="4:10">
+      <c r="D3055" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3055" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3055" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3055" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3055" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3055" s="2">
+        <v>4959477</v>
+      </c>
+      <c r="J3055" s="2">
+        <v>4959477</v>
+      </c>
+    </row>
+    <row r="3056" spans="4:10">
+      <c r="D3056" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3056" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3056" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3056" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3056" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3056" s="2">
+        <v>2167508</v>
+      </c>
+      <c r="J3056" s="2">
+        <v>2395904.6</v>
+      </c>
+    </row>
+    <row r="3057" spans="4:10">
+      <c r="D3057" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3057" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3057" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3057" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3057" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3057" s="2">
+        <v>3177693</v>
+      </c>
+      <c r="J3057" s="2">
+        <v>3813231.6</v>
+      </c>
+    </row>
+    <row r="3058" spans="4:10">
+      <c r="D3058" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3058" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3058" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3058" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3058" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3058" s="2">
+        <v>5194431</v>
+      </c>
+      <c r="J3058" s="2">
+        <v>5194431</v>
+      </c>
+    </row>
+    <row r="3059" spans="4:10">
+      <c r="D3059" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3059" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3059" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3059" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3059" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3059" s="2">
+        <v>2733362</v>
+      </c>
+      <c r="J3059" s="2">
+        <v>2733362</v>
+      </c>
+    </row>
+    <row r="3060" spans="4:10">
+      <c r="D3060" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3060" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3060" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3060" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3060" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3060" s="2">
+        <v>2214219</v>
+      </c>
+      <c r="J3060" s="2">
+        <v>2214219</v>
+      </c>
+    </row>
+    <row r="3061" spans="4:10">
+      <c r="D3061" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3061" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3061" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3061" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3061" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3061" s="2">
+        <v>3772040</v>
+      </c>
+      <c r="J3061" s="2">
+        <v>4271299</v>
+      </c>
+    </row>
+    <row r="3062" spans="4:10">
+      <c r="D3062" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3062" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3062" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3062" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3062" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3062" s="2">
+        <v>2876775</v>
+      </c>
+      <c r="J3062" s="2">
+        <v>2876775</v>
+      </c>
+    </row>
+    <row r="3063" spans="4:10">
+      <c r="D3063" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3063" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3063" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3063" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3063" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3063" s="2">
+        <v>4746027</v>
+      </c>
+      <c r="J3063" s="2">
+        <v>4746027</v>
+      </c>
+    </row>
+    <row r="3064" spans="4:10">
+      <c r="D3064" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3064" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3064" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3064" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3064" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3064" s="2">
+        <v>892176</v>
+      </c>
+      <c r="J3064" s="2">
+        <v>892176</v>
+      </c>
+    </row>
+    <row r="3065" spans="4:10">
+      <c r="D3065" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3065" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3065" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3065" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3065" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3065" s="2">
+        <v>1509953</v>
+      </c>
+      <c r="J3065" s="2">
+        <v>1509953</v>
+      </c>
+    </row>
+    <row r="3066" spans="4:10">
+      <c r="D3066" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3066" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3066" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3066" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3066" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3066" s="2">
+        <v>3721863</v>
+      </c>
+      <c r="J3066" s="2">
+        <v>3721863</v>
+      </c>
+    </row>
+    <row r="3067" spans="4:10">
+      <c r="D3067" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3067" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3067" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3067" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3067" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3067" s="2">
+        <v>5397210</v>
+      </c>
+      <c r="J3067" s="2">
+        <v>5397210</v>
+      </c>
+    </row>
+    <row r="3068" spans="4:10">
+      <c r="D3068" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3068" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3068" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3068" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3068" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3068" s="2">
+        <v>9598635</v>
+      </c>
+      <c r="J3068" s="2">
+        <v>11518362</v>
+      </c>
+    </row>
+    <row r="3069" spans="4:10">
+      <c r="D3069" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3069" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3069" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3069" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3069" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3069" s="2">
+        <v>3663132</v>
+      </c>
+      <c r="J3069" s="2">
+        <v>4120050.2</v>
+      </c>
+    </row>
+    <row r="3070" spans="4:10">
+      <c r="D3070" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3070" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3070" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3070" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3070" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3070" s="2">
+        <v>34260</v>
+      </c>
+      <c r="J3070" s="2">
+        <v>34260</v>
+      </c>
+    </row>
+    <row r="3071" spans="4:10">
+      <c r="D3071" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3071" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3071" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3071" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3071" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3071" s="2">
+        <v>3597824</v>
+      </c>
+      <c r="J3071" s="2">
+        <v>3597824</v>
+      </c>
+    </row>
+    <row r="3072" spans="4:10">
+      <c r="D3072" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3072" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3072" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3072" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3072" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3072" s="2">
+        <v>1459258</v>
+      </c>
+      <c r="J3072" s="2">
+        <v>1459258</v>
+      </c>
+    </row>
+    <row r="3073" spans="4:10">
+      <c r="D3073" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3073" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3073" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3073" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3073" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3073" s="2">
+        <v>924534</v>
+      </c>
+      <c r="J3073" s="2">
+        <v>924534</v>
+      </c>
+    </row>
+    <row r="3074" spans="4:10">
+      <c r="D3074" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3074" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3074" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3074" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3074" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3074" s="2">
+        <v>4216945</v>
+      </c>
+      <c r="J3074" s="2">
+        <v>4216945</v>
+      </c>
+    </row>
+    <row r="3075" spans="4:10">
+      <c r="D3075" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E3075" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3075" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3075" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3075" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3075" s="2">
+        <v>2449524</v>
+      </c>
+      <c r="J3075" s="2">
+        <v>2449524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
